--- a/climateSynth/DataSet_Normalised.xlsx
+++ b/climateSynth/DataSet_Normalised.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="CO2 Emissions" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="Land ice" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_647_Global_Temperature_Data_File_1" localSheetId="1">'Global Temperature'!$A$1:$C$137</definedName>
-    <definedName name="antarctica_mass_200204_201701" localSheetId="3">'Land ice'!$A$1:$C$159</definedName>
+    <definedName name="_647_Global_Temperature_Data_File_1" localSheetId="1">'Global Temperature'!$A$1:$B$137</definedName>
+    <definedName name="antarctica_mass_200204_201701" localSheetId="3">'Land ice'!$A$1:$B$159</definedName>
     <definedName name="co2_mm_mlo" localSheetId="0">'CO2 Emissions'!$A$1:$B$716</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>trend</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>Normalised Value</t>
-  </si>
-  <si>
-    <t>T</t>
   </si>
   <si>
     <t>Annual</t>
@@ -2738,7 +2735,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Global Temperature'!$D$1:$D$137</c:f>
+              <c:f>'Global Temperature'!$C$1:$C$137</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="137"/>
@@ -3781,7 +3778,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Land ice'!$D$1:$D$159</c:f>
+              <c:f>'Land ice'!$C$1:$C$159</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="159"/>
@@ -6692,13 +6689,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>801076</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>15630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>664308</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>183661</xdr:rowOff>
@@ -6762,13 +6759,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>450850</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>69850</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
@@ -7070,8 +7067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C716"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C716"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15673,64 +15670,55 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D137"/>
+  <dimension ref="A1:C137"/>
   <sheetViews>
     <sheetView zoomScale="65" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+      <selection sqref="A1:C137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1880</v>
       </c>
       <c r="B1">
-        <v>-0.2</v>
+        <v>-0.13</v>
       </c>
       <c r="C1">
-        <v>-0.13</v>
-      </c>
-      <c r="D1">
-        <f>(C1+0.5)/1.5 * (1) +0</f>
+        <f>(B1+0.5)/1.5 * (1) +0</f>
         <v>0.24666666666666667</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>4</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1881</v>
       </c>
       <c r="B2">
-        <v>-0.12</v>
+        <v>-0.16</v>
       </c>
       <c r="C2">
-        <v>-0.16</v>
-      </c>
-      <c r="D2">
-        <f>(C2+0.5)/1.5 * (1) +0</f>
+        <f>(B2+0.5)/1.5 * (1) +0</f>
         <v>0.22666666666666666</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1882</v>
       </c>
       <c r="B3">
-        <v>-0.1</v>
+        <v>-0.19</v>
       </c>
       <c r="C3">
-        <v>-0.19</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D66" si="0">(C3+0.5)/1.5 * (1) +0</f>
+        <f t="shared" ref="C3:C66" si="0">(B3+0.5)/1.5 * (1) +0</f>
         <v>0.20666666666666667</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1883</v>
       </c>
@@ -15738,134 +15726,107 @@
         <v>-0.21</v>
       </c>
       <c r="C4">
-        <v>-0.21</v>
-      </c>
-      <c r="D4">
         <f t="shared" si="0"/>
         <v>0.19333333333333336</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1884</v>
       </c>
       <c r="B5">
-        <v>-0.28000000000000003</v>
+        <v>-0.24</v>
       </c>
       <c r="C5">
-        <v>-0.24</v>
-      </c>
-      <c r="D5">
         <f t="shared" si="0"/>
         <v>0.17333333333333334</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1885</v>
       </c>
       <c r="B6">
-        <v>-0.32</v>
+        <v>-0.26</v>
       </c>
       <c r="C6">
-        <v>-0.26</v>
-      </c>
-      <c r="D6">
         <f t="shared" si="0"/>
         <v>0.16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1886</v>
       </c>
       <c r="B7">
-        <v>-0.31</v>
+        <v>-0.27</v>
       </c>
       <c r="C7">
-        <v>-0.27</v>
-      </c>
-      <c r="D7">
         <f t="shared" si="0"/>
         <v>0.15333333333333332</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1887</v>
       </c>
       <c r="B8">
-        <v>-0.33</v>
+        <v>-0.27</v>
       </c>
       <c r="C8">
-        <v>-0.27</v>
-      </c>
-      <c r="D8">
         <f t="shared" si="0"/>
         <v>0.15333333333333332</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1888</v>
       </c>
       <c r="B9">
-        <v>-0.2</v>
+        <v>-0.27</v>
       </c>
       <c r="C9">
-        <v>-0.27</v>
-      </c>
-      <c r="D9">
         <f t="shared" si="0"/>
         <v>0.15333333333333332</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1889</v>
       </c>
       <c r="B10">
-        <v>-0.12</v>
+        <v>-0.26</v>
       </c>
       <c r="C10">
-        <v>-0.26</v>
-      </c>
-      <c r="D10">
         <f t="shared" si="0"/>
         <v>0.16</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1890</v>
       </c>
       <c r="B11">
-        <v>-0.37</v>
+        <v>-0.26</v>
       </c>
       <c r="C11">
-        <v>-0.26</v>
-      </c>
-      <c r="D11">
         <f t="shared" si="0"/>
         <v>0.16</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1891</v>
       </c>
       <c r="B12">
-        <v>-0.24</v>
+        <v>-0.26</v>
       </c>
       <c r="C12">
-        <v>-0.26</v>
-      </c>
-      <c r="D12">
         <f t="shared" si="0"/>
         <v>0.16</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1892</v>
       </c>
@@ -15873,464 +15834,371 @@
         <v>-0.27</v>
       </c>
       <c r="C13">
-        <v>-0.27</v>
-      </c>
-      <c r="D13">
         <f t="shared" si="0"/>
         <v>0.15333333333333332</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1893</v>
       </c>
       <c r="B14">
-        <v>-0.3</v>
+        <v>-0.26</v>
       </c>
       <c r="C14">
-        <v>-0.26</v>
-      </c>
-      <c r="D14">
         <f t="shared" si="0"/>
         <v>0.16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1894</v>
       </c>
       <c r="B15">
-        <v>-0.31</v>
+        <v>-0.24</v>
       </c>
       <c r="C15">
-        <v>-0.24</v>
-      </c>
-      <c r="D15">
         <f t="shared" si="0"/>
         <v>0.17333333333333334</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1895</v>
       </c>
       <c r="B16">
-        <v>-0.21</v>
+        <v>-0.22</v>
       </c>
       <c r="C16">
-        <v>-0.22</v>
-      </c>
-      <c r="D16">
         <f t="shared" si="0"/>
         <v>0.18666666666666668</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1896</v>
       </c>
       <c r="B17">
-        <v>-0.15</v>
+        <v>-0.21</v>
       </c>
       <c r="C17">
-        <v>-0.21</v>
-      </c>
-      <c r="D17">
         <f t="shared" si="0"/>
         <v>0.19333333333333336</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1897</v>
       </c>
       <c r="B18">
-        <v>-0.11</v>
+        <v>-0.18</v>
       </c>
       <c r="C18">
-        <v>-0.18</v>
-      </c>
-      <c r="D18">
         <f t="shared" si="0"/>
         <v>0.21333333333333335</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1898</v>
       </c>
       <c r="B19">
-        <v>-0.28000000000000003</v>
+        <v>-0.17</v>
       </c>
       <c r="C19">
-        <v>-0.17</v>
-      </c>
-      <c r="D19">
         <f t="shared" si="0"/>
         <v>0.21999999999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1899</v>
       </c>
       <c r="B20">
-        <v>-0.16</v>
+        <v>-0.17</v>
       </c>
       <c r="C20">
-        <v>-0.17</v>
-      </c>
-      <c r="D20">
         <f t="shared" si="0"/>
         <v>0.21999999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1900</v>
       </c>
       <c r="B21">
-        <v>-0.09</v>
+        <v>-0.2</v>
       </c>
       <c r="C21">
-        <v>-0.2</v>
-      </c>
-      <c r="D21">
         <f t="shared" si="0"/>
         <v>0.19999999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1901</v>
       </c>
       <c r="B22">
-        <v>-0.15</v>
+        <v>-0.23</v>
       </c>
       <c r="C22">
-        <v>-0.23</v>
-      </c>
-      <c r="D22">
         <f t="shared" si="0"/>
         <v>0.18000000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1902</v>
       </c>
       <c r="B23">
-        <v>-0.27</v>
+        <v>-0.25</v>
       </c>
       <c r="C23">
-        <v>-0.25</v>
-      </c>
-      <c r="D23">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1903</v>
       </c>
       <c r="B24">
-        <v>-0.35</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="C24">
-        <v>-0.28000000000000003</v>
-      </c>
-      <c r="D24">
-        <f>(C24+0.5)/1.5 * (1) +0</f>
+        <f>(B24+0.5)/1.5 * (1) +0</f>
         <v>0.14666666666666664</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1904</v>
       </c>
       <c r="B25">
-        <v>-0.44</v>
+        <v>-0.31</v>
       </c>
       <c r="C25">
-        <v>-0.31</v>
-      </c>
-      <c r="D25">
         <f t="shared" si="0"/>
         <v>0.12666666666666668</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1905</v>
       </c>
       <c r="B26">
-        <v>-0.28000000000000003</v>
+        <v>-0.34</v>
       </c>
       <c r="C26">
-        <v>-0.34</v>
-      </c>
-      <c r="D26">
         <f t="shared" si="0"/>
         <v>0.10666666666666665</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1906</v>
       </c>
       <c r="B27">
-        <v>-0.23</v>
+        <v>-0.36</v>
       </c>
       <c r="C27">
-        <v>-0.36</v>
-      </c>
-      <c r="D27">
         <f t="shared" si="0"/>
         <v>9.3333333333333338E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1907</v>
       </c>
       <c r="B28">
-        <v>-0.4</v>
+        <v>-0.38</v>
       </c>
       <c r="C28">
-        <v>-0.38</v>
-      </c>
-      <c r="D28">
         <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1908</v>
       </c>
       <c r="B29">
-        <v>-0.43</v>
+        <v>-0.39</v>
       </c>
       <c r="C29">
-        <v>-0.39</v>
-      </c>
-      <c r="D29">
         <f t="shared" si="0"/>
         <v>7.333333333333332E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1909</v>
       </c>
       <c r="B30">
-        <v>-0.47</v>
+        <v>-0.41</v>
       </c>
       <c r="C30">
-        <v>-0.41</v>
-      </c>
-      <c r="D30">
         <f t="shared" si="0"/>
         <v>6.0000000000000019E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1910</v>
       </c>
       <c r="B31">
-        <v>-0.42</v>
+        <v>-0.41</v>
       </c>
       <c r="C31">
-        <v>-0.41</v>
-      </c>
-      <c r="D31">
         <f t="shared" si="0"/>
         <v>6.0000000000000019E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1911</v>
       </c>
       <c r="B32">
-        <v>-0.44</v>
+        <v>-0.38</v>
       </c>
       <c r="C32">
-        <v>-0.38</v>
-      </c>
-      <c r="D32">
         <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1912</v>
       </c>
       <c r="B33">
-        <v>-0.35</v>
+        <v>-0.34</v>
       </c>
       <c r="C33">
-        <v>-0.34</v>
-      </c>
-      <c r="D33">
         <f t="shared" si="0"/>
         <v>0.10666666666666665</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1913</v>
       </c>
       <c r="B34">
-        <v>-0.34</v>
+        <v>-0.32</v>
       </c>
       <c r="C34">
-        <v>-0.32</v>
-      </c>
-      <c r="D34">
         <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1914</v>
       </c>
       <c r="B35">
-        <v>-0.16</v>
+        <v>-0.3</v>
       </c>
       <c r="C35">
-        <v>-0.3</v>
-      </c>
-      <c r="D35">
         <f t="shared" si="0"/>
         <v>0.13333333333333333</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1915</v>
       </c>
       <c r="B36">
-        <v>-0.11</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="C36">
-        <v>-0.28999999999999998</v>
-      </c>
-      <c r="D36">
         <f t="shared" si="0"/>
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1916</v>
       </c>
       <c r="B37">
-        <v>-0.34</v>
+        <v>-0.27</v>
       </c>
       <c r="C37">
-        <v>-0.27</v>
-      </c>
-      <c r="D37">
         <f t="shared" si="0"/>
         <v>0.15333333333333332</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1917</v>
       </c>
       <c r="B38">
-        <v>-0.4</v>
+        <v>-0.27</v>
       </c>
       <c r="C38">
-        <v>-0.27</v>
-      </c>
-      <c r="D38">
         <f t="shared" si="0"/>
         <v>0.15333333333333332</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1918</v>
       </c>
       <c r="B39">
-        <v>-0.26</v>
+        <v>-0.27</v>
       </c>
       <c r="C39">
-        <v>-0.27</v>
-      </c>
-      <c r="D39">
         <f t="shared" si="0"/>
         <v>0.15333333333333332</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1919</v>
       </c>
       <c r="B40">
-        <v>-0.22</v>
+        <v>-0.27</v>
       </c>
       <c r="C40">
-        <v>-0.27</v>
-      </c>
-      <c r="D40">
         <f t="shared" si="0"/>
         <v>0.15333333333333332</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1920</v>
       </c>
       <c r="B41">
-        <v>-0.27</v>
+        <v>-0.26</v>
       </c>
       <c r="C41">
-        <v>-0.26</v>
-      </c>
-      <c r="D41">
         <f t="shared" si="0"/>
         <v>0.16</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1921</v>
       </c>
       <c r="B42">
-        <v>-0.21</v>
+        <v>-0.25</v>
       </c>
       <c r="C42">
-        <v>-0.25</v>
-      </c>
-      <c r="D42">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1922</v>
       </c>
       <c r="B43">
-        <v>-0.28000000000000003</v>
+        <v>-0.25</v>
       </c>
       <c r="C43">
-        <v>-0.25</v>
-      </c>
-      <c r="D43">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1923</v>
       </c>
@@ -16338,59 +16206,47 @@
         <v>-0.24</v>
       </c>
       <c r="C44">
-        <v>-0.24</v>
-      </c>
-      <c r="D44">
-        <f>(C44+0.5)/1.5 * (1) +0</f>
+        <f>(B44+0.5)/1.5 * (1) +0</f>
         <v>0.17333333333333334</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1924</v>
       </c>
       <c r="B45">
-        <v>-0.28000000000000003</v>
+        <v>-0.23</v>
       </c>
       <c r="C45">
-        <v>-0.23</v>
-      </c>
-      <c r="D45">
         <f t="shared" si="0"/>
         <v>0.18000000000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1925</v>
       </c>
       <c r="B46">
-        <v>-0.21</v>
+        <v>-0.22</v>
       </c>
       <c r="C46">
-        <v>-0.22</v>
-      </c>
-      <c r="D46">
         <f t="shared" si="0"/>
         <v>0.18666666666666668</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1926</v>
       </c>
       <c r="B47">
-        <v>-0.1</v>
+        <v>-0.21</v>
       </c>
       <c r="C47">
-        <v>-0.21</v>
-      </c>
-      <c r="D47">
         <f t="shared" si="0"/>
         <v>0.19333333333333336</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1927</v>
       </c>
@@ -16398,164 +16254,131 @@
         <v>-0.21</v>
       </c>
       <c r="C48">
-        <v>-0.21</v>
-      </c>
-      <c r="D48">
         <f t="shared" si="0"/>
         <v>0.19333333333333336</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1928</v>
       </c>
       <c r="B49">
-        <v>-0.21</v>
+        <v>-0.19</v>
       </c>
       <c r="C49">
-        <v>-0.19</v>
-      </c>
-      <c r="D49">
         <f t="shared" si="0"/>
         <v>0.20666666666666667</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1929</v>
       </c>
       <c r="B50">
-        <v>-0.36</v>
+        <v>-0.19</v>
       </c>
       <c r="C50">
-        <v>-0.19</v>
-      </c>
-      <c r="D50">
         <f t="shared" si="0"/>
         <v>0.20666666666666667</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1930</v>
       </c>
       <c r="B51">
-        <v>-0.15</v>
+        <v>-0.19</v>
       </c>
       <c r="C51">
-        <v>-0.19</v>
-      </c>
-      <c r="D51">
         <f t="shared" si="0"/>
         <v>0.20666666666666667</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1931</v>
       </c>
       <c r="B52">
-        <v>-0.09</v>
+        <v>-0.19</v>
       </c>
       <c r="C52">
-        <v>-0.19</v>
-      </c>
-      <c r="D52">
         <f t="shared" si="0"/>
         <v>0.20666666666666667</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1932</v>
       </c>
       <c r="B53">
-        <v>-0.17</v>
+        <v>-0.18</v>
       </c>
       <c r="C53">
-        <v>-0.18</v>
-      </c>
-      <c r="D53">
         <f t="shared" si="0"/>
         <v>0.21333333333333335</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1933</v>
       </c>
       <c r="B54">
-        <v>-0.28000000000000003</v>
+        <v>-0.17</v>
       </c>
       <c r="C54">
-        <v>-0.17</v>
-      </c>
-      <c r="D54">
         <f t="shared" si="0"/>
         <v>0.21999999999999997</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1934</v>
       </c>
       <c r="B55">
-        <v>-0.14000000000000001</v>
+        <v>-0.16</v>
       </c>
       <c r="C55">
-        <v>-0.16</v>
-      </c>
-      <c r="D55">
         <f t="shared" si="0"/>
         <v>0.22666666666666666</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1935</v>
       </c>
       <c r="B56">
-        <v>-0.2</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="C56">
-        <v>-0.14000000000000001</v>
-      </c>
-      <c r="D56">
         <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1936</v>
       </c>
       <c r="B57">
-        <v>-0.15</v>
+        <v>-0.12</v>
       </c>
       <c r="C57">
-        <v>-0.12</v>
-      </c>
-      <c r="D57">
         <f t="shared" si="0"/>
         <v>0.25333333333333335</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1937</v>
       </c>
       <c r="B58">
-        <v>-0.03</v>
+        <v>-0.08</v>
       </c>
       <c r="C58">
-        <v>-0.08</v>
-      </c>
-      <c r="D58">
-        <f>(C58+0.5)/1.5 * (1) +0</f>
+        <f>(B58+0.5)/1.5 * (1) +0</f>
         <v>0.27999999999999997</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1938</v>
       </c>
@@ -16563,194 +16386,155 @@
         <v>-0.03</v>
       </c>
       <c r="C59">
-        <v>-0.03</v>
-      </c>
-      <c r="D59">
         <f t="shared" si="0"/>
         <v>0.3133333333333333</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1939</v>
       </c>
       <c r="B60">
-        <v>-0.03</v>
+        <v>0.01</v>
       </c>
       <c r="C60">
-        <v>0.01</v>
-      </c>
-      <c r="D60">
         <f t="shared" si="0"/>
         <v>0.34</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1940</v>
       </c>
       <c r="B61">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="C61">
-        <v>0.05</v>
-      </c>
-      <c r="D61">
         <f t="shared" si="0"/>
         <v>0.3666666666666667</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1941</v>
       </c>
       <c r="B62">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="C62">
-        <v>0.08</v>
-      </c>
-      <c r="D62">
         <f t="shared" si="0"/>
         <v>0.38666666666666666</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1942</v>
       </c>
       <c r="B63">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="C63">
-        <v>0.11</v>
-      </c>
-      <c r="D63">
         <f t="shared" si="0"/>
         <v>0.40666666666666668</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1943</v>
       </c>
       <c r="B64">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="C64">
-        <v>0.11</v>
-      </c>
-      <c r="D64">
         <f t="shared" si="0"/>
         <v>0.40666666666666668</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1944</v>
       </c>
       <c r="B65">
-        <v>0.25</v>
+        <v>0.09</v>
       </c>
       <c r="C65">
-        <v>0.09</v>
-      </c>
-      <c r="D65">
         <f t="shared" si="0"/>
         <v>0.39333333333333331</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1945</v>
       </c>
       <c r="B66">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="C66">
-        <v>0.06</v>
-      </c>
-      <c r="D66">
         <f t="shared" si="0"/>
         <v>0.37333333333333335</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1946</v>
       </c>
       <c r="B67">
-        <v>-0.04</v>
+        <v>0.02</v>
       </c>
       <c r="C67">
-        <v>0.02</v>
-      </c>
-      <c r="D67">
-        <f t="shared" ref="D67:D105" si="1">(C67+0.5)/1.5 * (1) +0</f>
+        <f t="shared" ref="C67:C105" si="1">(B67+0.5)/1.5 * (1) +0</f>
         <v>0.34666666666666668</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1947</v>
       </c>
       <c r="B68">
-        <v>-0.05</v>
+        <v>-0.02</v>
       </c>
       <c r="C68">
-        <v>-0.02</v>
-      </c>
-      <c r="D68">
         <f t="shared" si="1"/>
         <v>0.32</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1948</v>
       </c>
       <c r="B69">
-        <v>-0.09</v>
+        <v>-0.06</v>
       </c>
       <c r="C69">
-        <v>-0.06</v>
-      </c>
-      <c r="D69">
         <f t="shared" si="1"/>
         <v>0.29333333333333333</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1949</v>
       </c>
       <c r="B70">
-        <v>-0.09</v>
+        <v>-0.08</v>
       </c>
       <c r="C70">
-        <v>-0.08</v>
-      </c>
-      <c r="D70">
         <f t="shared" si="1"/>
         <v>0.27999999999999997</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1950</v>
       </c>
       <c r="B71">
-        <v>-0.18</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="C71">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="D71">
         <f t="shared" si="1"/>
         <v>0.28666666666666668</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1951</v>
       </c>
@@ -16758,224 +16542,179 @@
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="C72">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="D72">
         <f t="shared" si="1"/>
         <v>0.28666666666666668</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1952</v>
       </c>
       <c r="B73">
-        <v>0.01</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="C73">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="D73">
         <f t="shared" si="1"/>
         <v>0.28666666666666668</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1953</v>
       </c>
       <c r="B74">
-        <v>0.08</v>
+        <v>-0.08</v>
       </c>
       <c r="C74">
-        <v>-0.08</v>
-      </c>
-      <c r="D74">
         <f t="shared" si="1"/>
         <v>0.27999999999999997</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1954</v>
       </c>
       <c r="B75">
-        <v>-0.13</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="C75">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="D75">
         <f t="shared" si="1"/>
         <v>0.28666666666666668</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1955</v>
       </c>
       <c r="B76">
-        <v>-0.15</v>
+        <v>-0.06</v>
       </c>
       <c r="C76">
-        <v>-0.06</v>
-      </c>
-      <c r="D76">
         <f t="shared" si="1"/>
         <v>0.29333333333333333</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1956</v>
       </c>
       <c r="B77">
-        <v>-0.2</v>
+        <v>-0.05</v>
       </c>
       <c r="C77">
-        <v>-0.05</v>
-      </c>
-      <c r="D77">
         <f t="shared" si="1"/>
         <v>0.3</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1957</v>
       </c>
       <c r="B78">
-        <v>0.04</v>
+        <v>-0.04</v>
       </c>
       <c r="C78">
-        <v>-0.04</v>
-      </c>
-      <c r="D78">
         <f t="shared" si="1"/>
         <v>0.3066666666666667</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1958</v>
       </c>
       <c r="B79">
-        <v>7.0000000000000007E-2</v>
+        <v>-0.01</v>
       </c>
       <c r="C79">
-        <v>-0.01</v>
-      </c>
-      <c r="D79">
         <f t="shared" si="1"/>
         <v>0.32666666666666666</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1959</v>
       </c>
       <c r="B80">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="C80">
-        <v>0.01</v>
-      </c>
-      <c r="D80">
-        <f>(C80+0.5)/1.5 * (1) +0</f>
+        <f>(B80+0.5)/1.5 * (1) +0</f>
         <v>0.34</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1960</v>
       </c>
       <c r="B81">
-        <v>-0.02</v>
+        <v>0.03</v>
       </c>
       <c r="C81">
-        <v>0.03</v>
-      </c>
-      <c r="D81">
         <f t="shared" si="1"/>
         <v>0.35333333333333333</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>1961</v>
       </c>
       <c r="B82">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="C82">
-        <v>0.02</v>
-      </c>
-      <c r="D82">
         <f t="shared" si="1"/>
         <v>0.34666666666666668</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1962</v>
       </c>
       <c r="B83">
-        <v>0.03</v>
+        <v>-0.01</v>
       </c>
       <c r="C83">
-        <v>-0.01</v>
-      </c>
-      <c r="D83">
         <f t="shared" si="1"/>
         <v>0.32666666666666666</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1963</v>
       </c>
       <c r="B84">
-        <v>0.06</v>
+        <v>-0.02</v>
       </c>
       <c r="C84">
-        <v>-0.02</v>
-      </c>
-      <c r="D84">
         <f t="shared" si="1"/>
         <v>0.32</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>1964</v>
       </c>
       <c r="B85">
-        <v>-0.2</v>
+        <v>-0.03</v>
       </c>
       <c r="C85">
-        <v>-0.03</v>
-      </c>
-      <c r="D85">
         <f t="shared" si="1"/>
         <v>0.3133333333333333</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1965</v>
       </c>
       <c r="B86">
-        <v>-0.1</v>
+        <v>-0.04</v>
       </c>
       <c r="C86">
-        <v>-0.04</v>
-      </c>
-      <c r="D86">
         <f t="shared" si="1"/>
         <v>0.3066666666666667</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>1966</v>
       </c>
@@ -16983,194 +16722,155 @@
         <v>-0.05</v>
       </c>
       <c r="C87">
-        <v>-0.05</v>
-      </c>
-      <c r="D87">
         <f t="shared" si="1"/>
         <v>0.3</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>1967</v>
       </c>
       <c r="B88">
-        <v>-0.02</v>
+        <v>-0.04</v>
       </c>
       <c r="C88">
-        <v>-0.04</v>
-      </c>
-      <c r="D88">
         <f t="shared" si="1"/>
         <v>0.3066666666666667</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>1968</v>
       </c>
       <c r="B89">
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.03</v>
       </c>
       <c r="C89">
-        <v>-0.03</v>
-      </c>
-      <c r="D89">
         <f t="shared" si="1"/>
         <v>0.3133333333333333</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>1969</v>
       </c>
       <c r="B90">
-        <v>7.0000000000000007E-2</v>
+        <v>-0.01</v>
       </c>
       <c r="C90">
-        <v>-0.01</v>
-      </c>
-      <c r="D90">
         <f t="shared" si="1"/>
         <v>0.32666666666666666</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>1970</v>
       </c>
       <c r="B91">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="C91">
-        <v>0</v>
-      </c>
-      <c r="D91">
         <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>1971</v>
       </c>
       <c r="B92">
-        <v>-0.09</v>
+        <v>0</v>
       </c>
       <c r="C92">
-        <v>0</v>
-      </c>
-      <c r="D92">
         <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>1972</v>
       </c>
       <c r="B93">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C93">
-        <v>0</v>
-      </c>
-      <c r="D93">
         <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>1973</v>
       </c>
       <c r="B94">
-        <v>0.15</v>
+        <v>-0.01</v>
       </c>
       <c r="C94">
-        <v>-0.01</v>
-      </c>
-      <c r="D94">
         <f t="shared" si="1"/>
         <v>0.32666666666666666</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>1974</v>
       </c>
       <c r="B95">
-        <v>-7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="C95">
-        <v>0</v>
-      </c>
-      <c r="D95">
         <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>1975</v>
       </c>
       <c r="B96">
-        <v>-0.02</v>
+        <v>0.02</v>
       </c>
       <c r="C96">
-        <v>0.02</v>
-      </c>
-      <c r="D96">
         <f t="shared" si="1"/>
         <v>0.34666666666666668</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>1976</v>
       </c>
       <c r="B97">
-        <v>-0.11</v>
+        <v>0.04</v>
       </c>
       <c r="C97">
-        <v>0.04</v>
-      </c>
-      <c r="D97">
         <f t="shared" si="1"/>
         <v>0.36000000000000004</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>1977</v>
       </c>
       <c r="B98">
-        <v>0.18</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C98">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D98">
         <f t="shared" si="1"/>
         <v>0.38000000000000006</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>1978</v>
       </c>
       <c r="B99">
-        <v>7.0000000000000007E-2</v>
+        <v>0.12</v>
       </c>
       <c r="C99">
-        <v>0.12</v>
-      </c>
-      <c r="D99">
         <f t="shared" si="1"/>
         <v>0.41333333333333333</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>1979</v>
       </c>
@@ -17178,564 +16878,450 @@
         <v>0.17</v>
       </c>
       <c r="C100">
-        <v>0.17</v>
-      </c>
-      <c r="D100">
-        <f>(C100+0.5)/1.5 * (1) +0</f>
+        <f>(B100+0.5)/1.5 * (1) +0</f>
         <v>0.44666666666666671</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>1980</v>
       </c>
       <c r="B101">
-        <v>0.27</v>
+        <v>0.2</v>
       </c>
       <c r="C101">
-        <v>0.2</v>
-      </c>
-      <c r="D101">
         <f t="shared" si="1"/>
         <v>0.46666666666666662</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>1981</v>
       </c>
       <c r="B102">
-        <v>0.33</v>
+        <v>0.21</v>
       </c>
       <c r="C102">
-        <v>0.21</v>
-      </c>
-      <c r="D102">
         <f t="shared" si="1"/>
         <v>0.47333333333333333</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>1982</v>
       </c>
       <c r="B103">
-        <v>0.13</v>
+        <v>0.21</v>
       </c>
       <c r="C103">
-        <v>0.21</v>
-      </c>
-      <c r="D103">
         <f t="shared" si="1"/>
         <v>0.47333333333333333</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>1983</v>
       </c>
       <c r="B104">
-        <v>0.3</v>
+        <v>0.21</v>
       </c>
       <c r="C104">
-        <v>0.21</v>
-      </c>
-      <c r="D104">
         <f t="shared" si="1"/>
         <v>0.47333333333333333</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>1984</v>
       </c>
       <c r="B105">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="C105">
-        <v>0.21</v>
-      </c>
-      <c r="D105">
         <f t="shared" si="1"/>
         <v>0.47333333333333333</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>1985</v>
       </c>
       <c r="B106">
-        <v>0.12</v>
+        <v>0.22</v>
       </c>
       <c r="C106">
-        <v>0.22</v>
-      </c>
-      <c r="D106">
-        <f>(C106+0.5)/1.5 * (1) +0</f>
+        <f>(B106+0.5)/1.5 * (1) +0</f>
         <v>0.48</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>1986</v>
       </c>
       <c r="B107">
-        <v>0.19</v>
+        <v>0.25</v>
       </c>
       <c r="C107">
-        <v>0.25</v>
-      </c>
-      <c r="D107">
-        <f t="shared" ref="D107:D137" si="2">(C107+0.5)/1.5 * (1) +0</f>
+        <f t="shared" ref="C107:C137" si="2">(B107+0.5)/1.5 * (1) +0</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>1987</v>
       </c>
       <c r="B108">
-        <v>0.33</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C108">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="D108">
         <f t="shared" si="2"/>
         <v>0.52</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>1988</v>
       </c>
       <c r="B109">
-        <v>0.41</v>
+        <v>0.32</v>
       </c>
       <c r="C109">
-        <v>0.32</v>
-      </c>
-      <c r="D109">
         <f t="shared" si="2"/>
         <v>0.54666666666666675</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>1989</v>
       </c>
       <c r="B110">
-        <v>0.28000000000000003</v>
+        <v>0.34</v>
       </c>
       <c r="C110">
-        <v>0.34</v>
-      </c>
-      <c r="D110">
         <f t="shared" si="2"/>
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>1990</v>
       </c>
       <c r="B111">
-        <v>0.44</v>
+        <v>0.34</v>
       </c>
       <c r="C111">
-        <v>0.34</v>
-      </c>
-      <c r="D111">
         <f t="shared" si="2"/>
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>1991</v>
       </c>
       <c r="B112">
-        <v>0.43</v>
+        <v>0.34</v>
       </c>
       <c r="C112">
-        <v>0.34</v>
-      </c>
-      <c r="D112">
         <f t="shared" si="2"/>
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>1992</v>
       </c>
       <c r="B113">
-        <v>0.23</v>
+        <v>0.34</v>
       </c>
       <c r="C113">
-        <v>0.34</v>
-      </c>
-      <c r="D113">
         <f t="shared" si="2"/>
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>1993</v>
       </c>
       <c r="B114">
-        <v>0.24</v>
+        <v>0.34</v>
       </c>
       <c r="C114">
-        <v>0.34</v>
-      </c>
-      <c r="D114">
         <f t="shared" si="2"/>
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>1994</v>
       </c>
       <c r="B115">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="C115">
-        <v>0.35</v>
-      </c>
-      <c r="D115">
         <f t="shared" si="2"/>
         <v>0.56666666666666665</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>1995</v>
       </c>
       <c r="B116">
-        <v>0.46</v>
+        <v>0.38</v>
       </c>
       <c r="C116">
-        <v>0.38</v>
-      </c>
-      <c r="D116">
         <f t="shared" si="2"/>
         <v>0.58666666666666667</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>1996</v>
       </c>
       <c r="B117">
-        <v>0.35</v>
+        <v>0.41</v>
       </c>
       <c r="C117">
-        <v>0.41</v>
-      </c>
-      <c r="D117">
         <f t="shared" si="2"/>
         <v>0.60666666666666658</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>1997</v>
       </c>
       <c r="B118">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="C118">
-        <v>0.44</v>
-      </c>
-      <c r="D118">
         <f t="shared" si="2"/>
         <v>0.62666666666666659</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>1998</v>
       </c>
       <c r="B119">
-        <v>0.64</v>
+        <v>0.46</v>
       </c>
       <c r="C119">
-        <v>0.46</v>
-      </c>
-      <c r="D119">
         <f t="shared" si="2"/>
         <v>0.64</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>1999</v>
       </c>
       <c r="B120">
-        <v>0.42</v>
+        <v>0.49</v>
       </c>
       <c r="C120">
-        <v>0.49</v>
-      </c>
-      <c r="D120">
         <f t="shared" si="2"/>
         <v>0.66</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>2000</v>
       </c>
       <c r="B121">
-        <v>0.42</v>
+        <v>0.52</v>
       </c>
       <c r="C121">
-        <v>0.52</v>
-      </c>
-      <c r="D121">
         <f t="shared" si="2"/>
         <v>0.68</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>2001</v>
       </c>
       <c r="B122">
-        <v>0.55000000000000004</v>
+        <v>0.54</v>
       </c>
       <c r="C122">
-        <v>0.54</v>
-      </c>
-      <c r="D122">
         <f t="shared" si="2"/>
         <v>0.69333333333333336</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>2002</v>
       </c>
       <c r="B123">
-        <v>0.63</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="C123">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="D123">
         <f t="shared" si="2"/>
         <v>0.70666666666666667</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>2003</v>
       </c>
       <c r="B124">
-        <v>0.62</v>
+        <v>0.59</v>
       </c>
       <c r="C124">
-        <v>0.59</v>
-      </c>
-      <c r="D124">
         <f t="shared" si="2"/>
         <v>0.72666666666666657</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>2004</v>
       </c>
       <c r="B125">
-        <v>0.55000000000000004</v>
+        <v>0.61</v>
       </c>
       <c r="C125">
-        <v>0.61</v>
-      </c>
-      <c r="D125">
         <f t="shared" si="2"/>
         <v>0.73999999999999988</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>2005</v>
       </c>
       <c r="B126">
-        <v>0.69</v>
+        <v>0.62</v>
       </c>
       <c r="C126">
-        <v>0.62</v>
-      </c>
-      <c r="D126">
         <f t="shared" si="2"/>
         <v>0.7466666666666667</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>2006</v>
       </c>
       <c r="B127">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="C127">
-        <v>0.62</v>
-      </c>
-      <c r="D127">
         <f t="shared" si="2"/>
         <v>0.7466666666666667</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>2007</v>
       </c>
       <c r="B128">
-        <v>0.66</v>
+        <v>0.63</v>
       </c>
       <c r="C128">
-        <v>0.63</v>
-      </c>
-      <c r="D128">
-        <f>(C128+0.5)/1.5 * (1) +0</f>
+        <f>(B128+0.5)/1.5 * (1) +0</f>
         <v>0.7533333333333333</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>2008</v>
       </c>
       <c r="B129">
-        <v>0.54</v>
+        <v>0.63</v>
       </c>
       <c r="C129">
-        <v>0.63</v>
-      </c>
-      <c r="D129">
         <f t="shared" si="2"/>
         <v>0.7533333333333333</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>2009</v>
       </c>
       <c r="B130">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="C130">
-        <v>0.63</v>
-      </c>
-      <c r="D130">
         <f t="shared" si="2"/>
         <v>0.7533333333333333</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>2010</v>
       </c>
       <c r="B131">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="C131">
-        <v>0.63</v>
-      </c>
-      <c r="D131">
         <f t="shared" si="2"/>
         <v>0.7533333333333333</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>2011</v>
       </c>
       <c r="B132">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="C132">
-        <v>0.65</v>
-      </c>
-      <c r="D132">
         <f t="shared" si="2"/>
         <v>0.76666666666666661</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>2012</v>
       </c>
       <c r="B133">
-        <v>0.63</v>
+        <v>0.68</v>
       </c>
       <c r="C133">
-        <v>0.68</v>
-      </c>
-      <c r="D133">
         <f t="shared" si="2"/>
         <v>0.78666666666666674</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>2013</v>
       </c>
       <c r="B134">
-        <v>0.65</v>
+        <v>0.74</v>
       </c>
       <c r="C134">
-        <v>0.74</v>
-      </c>
-      <c r="D134">
         <f t="shared" si="2"/>
         <v>0.82666666666666666</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>2014</v>
       </c>
       <c r="B135">
-        <v>0.74</v>
+        <v>0.79</v>
       </c>
       <c r="C135">
-        <v>0.79</v>
-      </c>
-      <c r="D135">
         <f t="shared" si="2"/>
         <v>0.86</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>2015</v>
       </c>
       <c r="B136">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="C136">
-        <v>0.85</v>
-      </c>
-      <c r="D136">
         <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>2016</v>
       </c>
       <c r="B137">
-        <v>0.99</v>
+        <v>0.91</v>
       </c>
       <c r="C137">
-        <v>0.91</v>
-      </c>
-      <c r="D137">
         <f t="shared" si="2"/>
         <v>0.94000000000000006</v>
       </c>
@@ -17752,7 +17338,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="A2" sqref="A2:C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17760,10 +17346,10 @@
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -18246,20 +17832,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D159"/>
+  <dimension ref="A1:C159"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>2002.29</v>
       </c>
@@ -18267,14 +17852,11 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>164.18</v>
-      </c>
-      <c r="D1">
         <f>(B1-MIN(B$1:B$159))/(MAX(B$1:B$159)-MIN(B$1:B$159))</f>
         <v>0.91917142273312646</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2002.35</v>
       </c>
@@ -18282,14 +17864,11 @@
         <v>62.12</v>
       </c>
       <c r="C2">
-        <v>103.45</v>
-      </c>
-      <c r="D2">
-        <f t="shared" ref="D2:D65" si="0">(B2-MIN(B$1:B$159))/(MAX(B$1:B$159)-MIN(B$1:B$159))</f>
+        <f t="shared" ref="C2:C65" si="0">(B2-MIN(B$1:B$159))/(MAX(B$1:B$159)-MIN(B$1:B$159))</f>
         <v>0.94869150751070408</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2002.62</v>
       </c>
@@ -18297,14 +17876,11 @@
         <v>-176.07</v>
       </c>
       <c r="C3">
-        <v>89.39</v>
-      </c>
-      <c r="D3">
         <f t="shared" si="0"/>
         <v>0.83550108585630589</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2002.71</v>
       </c>
@@ -18312,14 +17888,11 @@
         <v>170.09</v>
       </c>
       <c r="C4">
-        <v>104.14</v>
-      </c>
-      <c r="D4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2002.79</v>
       </c>
@@ -18327,14 +17900,11 @@
         <v>33.71</v>
       </c>
       <c r="C5">
-        <v>66.48</v>
-      </c>
-      <c r="D5">
         <f t="shared" si="0"/>
         <v>0.93519077331026979</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2002.87</v>
       </c>
@@ -18342,14 +17912,11 @@
         <v>-81.62</v>
       </c>
       <c r="C6">
-        <v>63.97</v>
-      </c>
-      <c r="D6">
         <f t="shared" si="0"/>
         <v>0.88038473053180821</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2002.96</v>
       </c>
@@ -18357,14 +17924,11 @@
         <v>-51.14</v>
       </c>
       <c r="C7">
-        <v>65.81</v>
-      </c>
-      <c r="D7">
         <f t="shared" si="0"/>
         <v>0.89486915075107043</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2003.04</v>
       </c>
@@ -18372,14 +17936,11 @@
         <v>-249.68</v>
       </c>
       <c r="C8">
-        <v>67.03</v>
-      </c>
-      <c r="D8">
         <f t="shared" si="0"/>
         <v>0.80052083085827797</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2003.12</v>
       </c>
@@ -18387,14 +17948,11 @@
         <v>-168.66</v>
       </c>
       <c r="C9">
-        <v>52.48</v>
-      </c>
-      <c r="D9">
         <f t="shared" si="0"/>
         <v>0.83902239667732725</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2003.2</v>
       </c>
@@ -18402,14 +17960,11 @@
         <v>-238.74</v>
       </c>
       <c r="C10">
-        <v>47.54</v>
-      </c>
-      <c r="D10">
         <f t="shared" si="0"/>
         <v>0.80571963522831502</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2003.29</v>
       </c>
@@ -18417,14 +17972,11 @@
         <v>-143.83000000000001</v>
       </c>
       <c r="C11">
-        <v>47.52</v>
-      </c>
-      <c r="D11">
         <f t="shared" si="0"/>
         <v>0.85082187679689025</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2003.36</v>
       </c>
@@ -18432,14 +17984,11 @@
         <v>-29.82</v>
       </c>
       <c r="C12">
-        <v>50.91</v>
-      </c>
-      <c r="D12">
         <f t="shared" si="0"/>
         <v>0.90500064153436022</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2003.54</v>
       </c>
@@ -18447,14 +17996,11 @@
         <v>-139.58000000000001</v>
       </c>
       <c r="C13">
-        <v>39.4</v>
-      </c>
-      <c r="D13">
         <f t="shared" si="0"/>
         <v>0.85284152200462859</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2003.62</v>
       </c>
@@ -18462,14 +18008,11 @@
         <v>-118.44</v>
       </c>
       <c r="C14">
-        <v>41.73</v>
-      </c>
-      <c r="D14">
         <f t="shared" si="0"/>
         <v>0.86288747487323758</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2003.71</v>
       </c>
@@ -18477,14 +18020,11 @@
         <v>-48.72</v>
       </c>
       <c r="C15">
-        <v>41.5</v>
-      </c>
-      <c r="D15">
         <f t="shared" si="0"/>
         <v>0.89601916049288854</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2003.79</v>
       </c>
@@ -18492,14 +18032,11 @@
         <v>-84.84</v>
       </c>
       <c r="C16">
-        <v>42.02</v>
-      </c>
-      <c r="D16">
         <f t="shared" si="0"/>
         <v>0.8788545522802983</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2003.87</v>
       </c>
@@ -18507,14 +18044,11 @@
         <v>-107.17</v>
       </c>
       <c r="C17">
-        <v>42.21</v>
-      </c>
-      <c r="D17">
         <f t="shared" si="0"/>
         <v>0.86824309875352246</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2003.96</v>
       </c>
@@ -18522,14 +18056,11 @@
         <v>-83.32</v>
       </c>
       <c r="C18">
-        <v>41.05</v>
-      </c>
-      <c r="D18">
         <f t="shared" si="0"/>
         <v>0.87957687244871297</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2004.02</v>
       </c>
@@ -18537,14 +18068,11 @@
         <v>-218.59</v>
       </c>
       <c r="C19">
-        <v>45.31</v>
-      </c>
-      <c r="D19">
         <f t="shared" si="0"/>
         <v>0.81529512956618033</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2004.13</v>
       </c>
@@ -18552,14 +18080,11 @@
         <v>-604.75</v>
       </c>
       <c r="C20">
-        <v>41.47</v>
-      </c>
-      <c r="D20">
         <f t="shared" si="0"/>
         <v>0.63178778993788998</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2004.21</v>
       </c>
@@ -18567,14 +18092,11 @@
         <v>-322.73</v>
       </c>
       <c r="C21">
-        <v>39.14</v>
-      </c>
-      <c r="D21">
         <f t="shared" si="0"/>
         <v>0.76580669381703437</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2004.29</v>
       </c>
@@ -18582,14 +18104,11 @@
         <v>-412.72</v>
       </c>
       <c r="C22">
-        <v>38.61</v>
-      </c>
-      <c r="D22">
         <f t="shared" si="0"/>
         <v>0.72304248858306441</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2004.37</v>
       </c>
@@ -18597,14 +18116,11 @@
         <v>-98.4</v>
       </c>
       <c r="C23">
-        <v>39.340000000000003</v>
-      </c>
-      <c r="D23">
         <f t="shared" si="0"/>
         <v>0.87241069604102017</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2004.46</v>
       </c>
@@ -18612,14 +18128,11 @@
         <v>-99.73</v>
       </c>
       <c r="C24">
-        <v>38.4</v>
-      </c>
-      <c r="D24">
         <f t="shared" si="0"/>
         <v>0.87177866589365738</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2004.54</v>
       </c>
@@ -18627,14 +18140,11 @@
         <v>-331.48</v>
       </c>
       <c r="C25">
-        <v>34.880000000000003</v>
-      </c>
-      <c r="D25">
         <f t="shared" si="0"/>
         <v>0.76164860074227902</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2004.62</v>
       </c>
@@ -18642,14 +18152,11 @@
         <v>-361.87</v>
       </c>
       <c r="C26">
-        <v>36.06</v>
-      </c>
-      <c r="D26">
         <f t="shared" si="0"/>
         <v>0.74720694948035715</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2004.71</v>
       </c>
@@ -18657,14 +18164,11 @@
         <v>-287.24</v>
       </c>
       <c r="C27">
-        <v>36.770000000000003</v>
-      </c>
-      <c r="D27">
         <f t="shared" si="0"/>
         <v>0.78267191932824232</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2004.79</v>
       </c>
@@ -18672,14 +18176,11 @@
         <v>78</v>
       </c>
       <c r="C28">
-        <v>33.76</v>
-      </c>
-      <c r="D28">
         <f t="shared" si="0"/>
         <v>0.95623785242808879</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2004.87</v>
       </c>
@@ -18687,14 +18188,11 @@
         <v>-181.62</v>
       </c>
       <c r="C29">
-        <v>35.93</v>
-      </c>
-      <c r="D29">
         <f>(B29-MIN(B$1:B$159))/(MAX(B$1:B$159)-MIN(B$1:B$159))</f>
         <v>0.83286366682031809</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2004.96</v>
       </c>
@@ -18702,14 +18200,11 @@
         <v>-229.19</v>
       </c>
       <c r="C30">
-        <v>35.049999999999997</v>
-      </c>
-      <c r="D30">
         <f t="shared" si="0"/>
         <v>0.81025789681276228</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2005.04</v>
       </c>
@@ -18717,14 +18212,11 @@
         <v>-323.17</v>
       </c>
       <c r="C31">
-        <v>33.57</v>
-      </c>
-      <c r="D31">
         <f t="shared" si="0"/>
         <v>0.76559760113670383</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2005.12</v>
       </c>
@@ -18732,14 +18224,11 @@
         <v>-379.81</v>
       </c>
       <c r="C32">
-        <v>35.200000000000003</v>
-      </c>
-      <c r="D32">
         <f t="shared" si="0"/>
         <v>0.73868167065051593</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2005.2</v>
       </c>
@@ -18747,14 +18236,11 @@
         <v>-362.53</v>
       </c>
       <c r="C33">
-        <v>35.08</v>
-      </c>
-      <c r="D33">
         <f t="shared" si="0"/>
         <v>0.7468933104598614</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2005.29</v>
       </c>
@@ -18762,14 +18248,11 @@
         <v>-276.68</v>
       </c>
       <c r="C34">
-        <v>34.549999999999997</v>
-      </c>
-      <c r="D34">
         <f t="shared" si="0"/>
         <v>0.78769014365617562</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2005.37</v>
       </c>
@@ -18777,14 +18260,11 @@
         <v>-285.66000000000003</v>
       </c>
       <c r="C35">
-        <v>35.46</v>
-      </c>
-      <c r="D35">
         <f t="shared" si="0"/>
         <v>0.78342275213488377</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2005.46</v>
       </c>
@@ -18792,14 +18272,11 @@
         <v>-196.75</v>
       </c>
       <c r="C36">
-        <v>35.99</v>
-      </c>
-      <c r="D36">
         <f t="shared" si="0"/>
         <v>0.8256737298807697</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2005.54</v>
       </c>
@@ -18807,14 +18284,11 @@
         <v>-128.12</v>
       </c>
       <c r="C37">
-        <v>34.71</v>
-      </c>
-      <c r="D37">
         <f t="shared" si="0"/>
         <v>0.85828743590596535</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2005.62</v>
       </c>
@@ -18822,14 +18296,11 @@
         <v>-342.36</v>
       </c>
       <c r="C38">
-        <v>35.049999999999997</v>
-      </c>
-      <c r="D38">
         <f t="shared" si="0"/>
         <v>0.75647830901046897</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2005.71</v>
       </c>
@@ -18837,14 +18308,11 @@
         <v>-109.54</v>
       </c>
       <c r="C39">
-        <v>34.72</v>
-      </c>
-      <c r="D39">
         <f t="shared" si="0"/>
         <v>0.86711684954356028</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2005.79</v>
       </c>
@@ -18852,14 +18320,11 @@
         <v>-121.62</v>
       </c>
       <c r="C40">
-        <v>33.979999999999997</v>
-      </c>
-      <c r="D40">
         <f t="shared" si="0"/>
         <v>0.86137630504721219</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2005.87</v>
       </c>
@@ -18867,14 +18332,11 @@
         <v>-97.43</v>
       </c>
       <c r="C41">
-        <v>33.9</v>
-      </c>
-      <c r="D41">
         <f t="shared" si="0"/>
         <v>0.87287165035902159</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2005.96</v>
       </c>
@@ -18882,14 +18344,11 @@
         <v>-137.22999999999999</v>
       </c>
       <c r="C42">
-        <v>39.909999999999997</v>
-      </c>
-      <c r="D42">
         <f t="shared" si="0"/>
         <v>0.85395826700184863</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2006.04</v>
       </c>
@@ -18897,14 +18356,11 @@
         <v>-315.63</v>
       </c>
       <c r="C43">
-        <v>35.409999999999997</v>
-      </c>
-      <c r="D43">
         <f t="shared" si="0"/>
         <v>0.76918068934055028</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2006.12</v>
       </c>
@@ -18912,14 +18368,11 @@
         <v>-340.25</v>
       </c>
       <c r="C44">
-        <v>36.06</v>
-      </c>
-      <c r="D44">
         <f t="shared" si="0"/>
         <v>0.75748100345478131</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2006.2</v>
       </c>
@@ -18927,14 +18380,11 @@
         <v>-296.39</v>
       </c>
       <c r="C45">
-        <v>35.93</v>
-      </c>
-      <c r="D45">
         <f t="shared" si="0"/>
         <v>0.77832374199864085</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2006.29</v>
       </c>
@@ -18942,14 +18392,11 @@
         <v>-307.18</v>
       </c>
       <c r="C46">
-        <v>36.17</v>
-      </c>
-      <c r="D46">
         <f t="shared" si="0"/>
         <v>0.77319621922417114</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2006.37</v>
       </c>
@@ -18957,14 +18404,11 @@
         <v>-178.31</v>
       </c>
       <c r="C47">
-        <v>36.549999999999997</v>
-      </c>
-      <c r="D47">
         <f t="shared" si="0"/>
         <v>0.83443661402916847</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2006.45</v>
       </c>
@@ -18972,14 +18416,11 @@
         <v>-154.18</v>
       </c>
       <c r="C48">
-        <v>38.71</v>
-      </c>
-      <c r="D48">
         <f t="shared" si="0"/>
         <v>0.84590344670275097</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2006.54</v>
       </c>
@@ -18987,14 +18428,11 @@
         <v>-196.17</v>
       </c>
       <c r="C49">
-        <v>38.020000000000003</v>
-      </c>
-      <c r="D49">
         <f t="shared" si="0"/>
         <v>0.82594935205029629</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2006.62</v>
       </c>
@@ -19002,14 +18440,11 @@
         <v>2.39</v>
       </c>
       <c r="C50">
-        <v>37.31</v>
-      </c>
-      <c r="D50">
         <f t="shared" si="0"/>
         <v>0.92030717615583113</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2006.71</v>
       </c>
@@ -19017,14 +18452,11 @@
         <v>-10.96</v>
       </c>
       <c r="C51">
-        <v>39.31</v>
-      </c>
-      <c r="D51">
         <f t="shared" si="0"/>
         <v>0.91396311415034714</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2006.79</v>
       </c>
@@ -19032,14 +18464,11 @@
         <v>-74.55</v>
       </c>
       <c r="C52">
-        <v>38.590000000000003</v>
-      </c>
-      <c r="D52">
         <f t="shared" si="0"/>
         <v>0.88374446973621068</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2006.87</v>
       </c>
@@ -19047,14 +18476,11 @@
         <v>-162.59</v>
       </c>
       <c r="C53">
-        <v>38.44</v>
-      </c>
-      <c r="D53">
         <f t="shared" si="0"/>
         <v>0.84190692524461475</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2006.96</v>
       </c>
@@ -19062,14 +18488,11 @@
         <v>-244.63</v>
       </c>
       <c r="C54">
-        <v>39.65</v>
-      </c>
-      <c r="D54">
         <f t="shared" si="0"/>
         <v>0.80292064457570822</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2007.04</v>
       </c>
@@ -19077,14 +18500,11 @@
         <v>-451.67</v>
       </c>
       <c r="C55">
-        <v>40.479999999999997</v>
-      </c>
-      <c r="D55">
         <f t="shared" si="0"/>
         <v>0.70453303426743907</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2007.12</v>
       </c>
@@ -19092,14 +18512,11 @@
         <v>-427.09</v>
       </c>
       <c r="C56">
-        <v>39.840000000000003</v>
-      </c>
-      <c r="D56">
         <f t="shared" si="0"/>
         <v>0.71621371172772341</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2007.2</v>
       </c>
@@ -19107,14 +18524,11 @@
         <v>-453.85</v>
       </c>
       <c r="C57">
-        <v>39.799999999999997</v>
-      </c>
-      <c r="D57">
         <f t="shared" si="0"/>
         <v>0.70349707507852854</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2007.29</v>
       </c>
@@ -19122,14 +18536,11 @@
         <v>-356.27</v>
       </c>
       <c r="C58">
-        <v>39.6</v>
-      </c>
-      <c r="D58">
         <f t="shared" si="0"/>
         <v>0.74986812904820066</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2007.37</v>
       </c>
@@ -19137,14 +18548,11 @@
         <v>-70.239999999999995</v>
       </c>
       <c r="C59">
-        <v>39.369999999999997</v>
-      </c>
-      <c r="D59">
         <f t="shared" si="0"/>
         <v>0.88579262758217581</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2007.45</v>
       </c>
@@ -19152,14 +18560,11 @@
         <v>-269.10000000000002</v>
       </c>
       <c r="C60">
-        <v>40.5</v>
-      </c>
-      <c r="D60">
         <f t="shared" si="0"/>
         <v>0.79129224028550649</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2007.54</v>
       </c>
@@ -19167,14 +18572,11 @@
         <v>-295.85000000000002</v>
       </c>
       <c r="C61">
-        <v>39.22</v>
-      </c>
-      <c r="D61">
         <f t="shared" si="0"/>
         <v>0.77858035574268292</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2007.62</v>
       </c>
@@ -19182,14 +18584,11 @@
         <v>-222.92</v>
       </c>
       <c r="C62">
-        <v>41.63</v>
-      </c>
-      <c r="D62">
         <f t="shared" si="0"/>
         <v>0.81323746750747272</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2007.71</v>
       </c>
@@ -19197,14 +18596,11 @@
         <v>-196.99</v>
       </c>
       <c r="C63">
-        <v>40.409999999999997</v>
-      </c>
-      <c r="D63">
         <f t="shared" si="0"/>
         <v>0.82555967932786212</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2007.79</v>
       </c>
@@ -19212,14 +18608,11 @@
         <v>-374.88</v>
       </c>
       <c r="C64">
-        <v>41.05</v>
-      </c>
-      <c r="D64">
         <f t="shared" si="0"/>
         <v>0.74102445909149239</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2007.87</v>
       </c>
@@ -19227,14 +18620,11 @@
         <v>-467.93</v>
       </c>
       <c r="C65">
-        <v>42.24</v>
-      </c>
-      <c r="D65">
         <f t="shared" si="0"/>
         <v>0.69680610930795073</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2007.96</v>
       </c>
@@ -19242,14 +18632,11 @@
         <v>-469.47</v>
       </c>
       <c r="C66">
-        <v>40.659999999999997</v>
-      </c>
-      <c r="D66">
-        <f t="shared" ref="D66:D129" si="1">(B66-MIN(B$1:B$159))/(MAX(B$1:B$159)-MIN(B$1:B$159))</f>
+        <f t="shared" ref="C66:C129" si="1">(B66-MIN(B$1:B$159))/(MAX(B$1:B$159)-MIN(B$1:B$159))</f>
         <v>0.6960742849267938</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2008.04</v>
       </c>
@@ -19257,14 +18644,11 @@
         <v>-715.07</v>
       </c>
       <c r="C67">
-        <v>39.93</v>
-      </c>
-      <c r="D67">
         <f t="shared" si="1"/>
         <v>0.57936255245137414</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2008.12</v>
       </c>
@@ -19272,14 +18656,11 @@
         <v>-676.06</v>
       </c>
       <c r="C68">
-        <v>41.63</v>
-      </c>
-      <c r="D68">
         <f t="shared" si="1"/>
         <v>0.59790051940522637</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2008.21</v>
       </c>
@@ -19287,14 +18668,11 @@
         <v>-660.57</v>
       </c>
       <c r="C69">
-        <v>40.72</v>
-      </c>
-      <c r="D69">
         <f t="shared" si="1"/>
         <v>0.60526153217413625</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2008.29</v>
       </c>
@@ -19302,14 +18680,11 @@
         <v>-515.51</v>
       </c>
       <c r="C70">
-        <v>42.78</v>
-      </c>
-      <c r="D70">
         <f t="shared" si="1"/>
         <v>0.67419558719402384</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2008.37</v>
       </c>
@@ -19317,14 +18692,11 @@
         <v>-518.89</v>
       </c>
       <c r="C71">
-        <v>41.18</v>
-      </c>
-      <c r="D71">
         <f t="shared" si="1"/>
         <v>0.67258937524057538</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>2008.46</v>
       </c>
@@ -19332,14 +18704,11 @@
         <v>-484.19</v>
       </c>
       <c r="C72">
-        <v>41.2</v>
-      </c>
-      <c r="D72">
         <f t="shared" si="1"/>
         <v>0.68907918434846249</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>2008.54</v>
       </c>
@@ -19347,14 +18716,11 @@
         <v>-764.67</v>
       </c>
       <c r="C73">
-        <v>42.08</v>
-      </c>
-      <c r="D73">
         <f t="shared" si="1"/>
         <v>0.55579210485047503</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2008.62</v>
       </c>
@@ -19362,14 +18728,11 @@
         <v>-821.51</v>
       </c>
       <c r="C74">
-        <v>41.49</v>
-      </c>
-      <c r="D74">
         <f t="shared" si="1"/>
         <v>0.52878113223686407</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2008.71</v>
       </c>
@@ -19377,14 +18740,11 @@
         <v>-540.04999999999995</v>
       </c>
       <c r="C75">
-        <v>41.64</v>
-      </c>
-      <c r="D75">
         <f t="shared" si="1"/>
         <v>0.66253391815922413</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2008.79</v>
       </c>
@@ -19392,14 +18752,11 @@
         <v>-536.66</v>
       </c>
       <c r="C76">
-        <v>40.11</v>
-      </c>
-      <c r="D76">
         <f t="shared" si="1"/>
         <v>0.66414488221904355</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>2008.87</v>
       </c>
@@ -19407,14 +18764,11 @@
         <v>-476.17</v>
       </c>
       <c r="C77">
-        <v>41.14</v>
-      </c>
-      <c r="D77">
         <f t="shared" si="1"/>
         <v>0.692890373658124</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>2008.96</v>
       </c>
@@ -19422,14 +18776,11 @@
         <v>-572.54999999999995</v>
       </c>
       <c r="C78">
-        <v>40.659999999999997</v>
-      </c>
-      <c r="D78">
         <f t="shared" si="1"/>
         <v>0.64708957245298981</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>2009.04</v>
       </c>
@@ -19437,14 +18788,11 @@
         <v>-682.62</v>
       </c>
       <c r="C79">
-        <v>39.950000000000003</v>
-      </c>
-      <c r="D79">
         <f t="shared" si="1"/>
         <v>0.59478313762575263</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>2009.12</v>
       </c>
@@ -19452,14 +18800,11 @@
         <v>-641.78</v>
       </c>
       <c r="C80">
-        <v>39.909999999999997</v>
-      </c>
-      <c r="D80">
         <f t="shared" si="1"/>
         <v>0.61419074004552521</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>2009.2</v>
       </c>
@@ -19467,14 +18812,11 @@
         <v>-592.27</v>
       </c>
       <c r="C81">
-        <v>39.74</v>
-      </c>
-      <c r="D81">
         <f t="shared" si="1"/>
         <v>0.63771841868908397</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>2009.29</v>
       </c>
@@ -19482,14 +18824,11 @@
         <v>-577.59</v>
       </c>
       <c r="C82">
-        <v>37.119999999999997</v>
-      </c>
-      <c r="D82">
         <f t="shared" si="1"/>
         <v>0.64469451084193075</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>2009.37</v>
       </c>
@@ -19497,14 +18836,11 @@
         <v>-572.47</v>
       </c>
       <c r="C83">
-        <v>37.01</v>
-      </c>
-      <c r="D83">
         <f t="shared" si="1"/>
         <v>0.64712758930395897</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>2009.46</v>
       </c>
@@ -19512,14 +18848,11 @@
         <v>-570.42999999999995</v>
       </c>
       <c r="C84">
-        <v>37.22</v>
-      </c>
-      <c r="D84">
         <f t="shared" si="1"/>
         <v>0.64809701900367334</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>2009.54</v>
       </c>
@@ -19527,14 +18860,11 @@
         <v>-546.30999999999995</v>
       </c>
       <c r="C85">
-        <v>37.78</v>
-      </c>
-      <c r="D85">
         <f t="shared" si="1"/>
         <v>0.65955909957088488</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>2009.62</v>
       </c>
@@ -19542,14 +18872,11 @@
         <v>-550.67999999999995</v>
       </c>
       <c r="C86">
-        <v>35.86</v>
-      </c>
-      <c r="D86">
         <f t="shared" si="1"/>
         <v>0.65748242908669263</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>2009.71</v>
       </c>
@@ -19557,14 +18884,11 @@
         <v>-544.09</v>
       </c>
       <c r="C87">
-        <v>34.03</v>
-      </c>
-      <c r="D87">
         <f t="shared" si="1"/>
         <v>0.66061406718527993</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>2009.79</v>
       </c>
@@ -19572,14 +18896,11 @@
         <v>-548.48</v>
       </c>
       <c r="C88">
-        <v>34.29</v>
-      </c>
-      <c r="D88">
         <f t="shared" si="1"/>
         <v>0.65852789248834542</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>2009.87</v>
       </c>
@@ -19587,14 +18908,11 @@
         <v>-587.91999999999996</v>
       </c>
       <c r="C89">
-        <v>33.44</v>
-      </c>
-      <c r="D89">
         <f t="shared" si="1"/>
         <v>0.63978558496053384</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>2009.96</v>
       </c>
@@ -19602,14 +18920,11 @@
         <v>-587.78</v>
       </c>
       <c r="C90">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="D90">
         <f t="shared" si="1"/>
         <v>0.63985211444972989</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>2010.04</v>
       </c>
@@ -19617,14 +18932,11 @@
         <v>-846.48</v>
       </c>
       <c r="C91">
-        <v>32.74</v>
-      </c>
-      <c r="D91">
         <f t="shared" si="1"/>
         <v>0.51691512262810491</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>2010.12</v>
       </c>
@@ -19632,14 +18944,11 @@
         <v>-671.72</v>
       </c>
       <c r="C92">
-        <v>32.380000000000003</v>
-      </c>
-      <c r="D92">
         <f t="shared" si="1"/>
         <v>0.59996293357030506</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>2010.2</v>
       </c>
@@ -19647,14 +18956,11 @@
         <v>-621.76</v>
       </c>
       <c r="C93">
-        <v>34.520000000000003</v>
-      </c>
-      <c r="D93">
         <f t="shared" si="1"/>
         <v>0.62370445700056554</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>2010.29</v>
       </c>
@@ -19662,14 +18968,11 @@
         <v>-706.68</v>
       </c>
       <c r="C94">
-        <v>32.630000000000003</v>
-      </c>
-      <c r="D94">
         <f t="shared" si="1"/>
         <v>0.5833495696967681</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>2010.37</v>
       </c>
@@ -19677,14 +18980,11 @@
         <v>-727.68</v>
       </c>
       <c r="C95">
-        <v>33.46</v>
-      </c>
-      <c r="D95">
         <f t="shared" si="1"/>
         <v>0.57337014631735517</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>2010.45</v>
       </c>
@@ -19692,14 +18992,11 @@
         <v>-809.36</v>
       </c>
       <c r="C96">
-        <v>39.71</v>
-      </c>
-      <c r="D96">
         <f t="shared" si="1"/>
         <v>0.53455494147781013</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>2010.54</v>
       </c>
@@ -19707,14 +19004,11 @@
         <v>-1071.51</v>
       </c>
       <c r="C97">
-        <v>37.86</v>
-      </c>
-      <c r="D97">
         <f t="shared" si="1"/>
         <v>0.40997847295813872</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>2010.62</v>
       </c>
@@ -19722,14 +19016,11 @@
         <v>-953.83</v>
       </c>
       <c r="C98">
-        <v>36.17</v>
-      </c>
-      <c r="D98">
         <f t="shared" si="1"/>
         <v>0.46590126073382027</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>2010.71</v>
       </c>
@@ -19737,14 +19028,11 @@
         <v>-841.41</v>
       </c>
       <c r="C99">
-        <v>38.299999999999997</v>
-      </c>
-      <c r="D99">
         <f t="shared" si="1"/>
         <v>0.51932444055827742</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>2010.79</v>
       </c>
@@ -19752,14 +19040,11 @@
         <v>-935.26</v>
       </c>
       <c r="C100">
-        <v>40.78</v>
-      </c>
-      <c r="D100">
         <f t="shared" si="1"/>
         <v>0.47472592226504401</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>2010.87</v>
       </c>
@@ -19767,14 +19052,11 @@
         <v>-928.85</v>
       </c>
       <c r="C101">
-        <v>42.08</v>
-      </c>
-      <c r="D101">
         <f t="shared" si="1"/>
         <v>0.47777202244895051</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>2010.96</v>
       </c>
@@ -19782,14 +19064,11 @@
         <v>-789.81</v>
       </c>
       <c r="C102">
-        <v>43.51</v>
-      </c>
-      <c r="D102">
         <f t="shared" si="1"/>
         <v>0.54384530943340637</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>2011.13</v>
       </c>
@@ -19797,14 +19076,11 @@
         <v>-1033.29</v>
       </c>
       <c r="C103">
-        <v>45.81</v>
-      </c>
-      <c r="D103">
         <f t="shared" si="1"/>
         <v>0.42814102350867028</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>2011.2</v>
       </c>
@@ -19812,14 +19088,11 @@
         <v>-1086.26</v>
       </c>
       <c r="C104">
-        <v>44.31</v>
-      </c>
-      <c r="D104">
         <f t="shared" si="1"/>
         <v>0.40296911606069391</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>2011.29</v>
       </c>
@@ -19827,14 +19100,11 @@
         <v>-1138.23</v>
       </c>
       <c r="C105">
-        <v>44.37</v>
-      </c>
-      <c r="D105">
         <f t="shared" si="1"/>
         <v>0.37827241924983251</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>2011.37</v>
       </c>
@@ -19842,14 +19112,11 @@
         <v>-1017.76</v>
       </c>
       <c r="C106">
-        <v>43.55</v>
-      </c>
-      <c r="D106">
         <f t="shared" si="1"/>
         <v>0.43552104470306463</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>2011.55</v>
       </c>
@@ -19857,14 +19124,11 @@
         <v>-1035.1300000000001</v>
       </c>
       <c r="C107">
-        <v>46.74</v>
-      </c>
-      <c r="D107">
         <f t="shared" si="1"/>
         <v>0.42726663593637876</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>2011.62</v>
       </c>
@@ -19872,14 +19136,11 @@
         <v>-951.88</v>
       </c>
       <c r="C108">
-        <v>44.14</v>
-      </c>
-      <c r="D108">
         <f t="shared" si="1"/>
         <v>0.46682792147619434</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>2011.71</v>
       </c>
@@ -19887,14 +19148,11 @@
         <v>-827.31</v>
       </c>
       <c r="C109">
-        <v>43.09</v>
-      </c>
-      <c r="D109">
         <f t="shared" si="1"/>
         <v>0.52602491054159761</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>2011.79</v>
       </c>
@@ -19902,14 +19160,11 @@
         <v>-914.18</v>
       </c>
       <c r="C110">
-        <v>42.43</v>
-      </c>
-      <c r="D110">
         <f t="shared" si="1"/>
         <v>0.48474336249542616</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>2011.83</v>
       </c>
@@ -19917,14 +19172,11 @@
         <v>-611.65</v>
       </c>
       <c r="C111">
-        <v>43.17</v>
-      </c>
-      <c r="D111">
         <f t="shared" si="1"/>
         <v>0.62850883654179723</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>2012</v>
       </c>
@@ -19932,14 +19184,11 @@
         <v>-948.14</v>
       </c>
       <c r="C112">
-        <v>43.77</v>
-      </c>
-      <c r="D112">
         <f t="shared" si="1"/>
         <v>0.46860520925900406</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>2012.04</v>
       </c>
@@ -19947,14 +19196,11 @@
         <v>-1066.81</v>
       </c>
       <c r="C113">
-        <v>42.4</v>
-      </c>
-      <c r="D113">
         <f t="shared" si="1"/>
         <v>0.41221196295257878</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>2012.12</v>
       </c>
@@ -19962,14 +19208,11 @@
         <v>-1088.57</v>
       </c>
       <c r="C114">
-        <v>44.2</v>
-      </c>
-      <c r="D114">
         <f t="shared" si="1"/>
         <v>0.40187137948895851</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>2012.21</v>
       </c>
@@ -19977,14 +19220,11 @@
         <v>-1025.6600000000001</v>
       </c>
       <c r="C115">
-        <v>42.54</v>
-      </c>
-      <c r="D115">
         <f t="shared" si="1"/>
         <v>0.43176688066985691</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>2012.27</v>
       </c>
@@ -19992,14 +19232,11 @@
         <v>-1043.95</v>
       </c>
       <c r="C116">
-        <v>50.91</v>
-      </c>
-      <c r="D116">
         <f t="shared" si="1"/>
         <v>0.42307527811702539</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>2012.46</v>
       </c>
@@ -20007,14 +19244,11 @@
         <v>-1028.25</v>
       </c>
       <c r="C117">
-        <v>45.92</v>
-      </c>
-      <c r="D117">
         <f t="shared" si="1"/>
         <v>0.43053608511972935</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>2012.54</v>
       </c>
@@ -20022,14 +19256,11 @@
         <v>-1196.57</v>
       </c>
       <c r="C118">
-        <v>44.2</v>
-      </c>
-      <c r="D118">
         <f t="shared" si="1"/>
         <v>0.3505486306805492</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>2012.62</v>
       </c>
@@ -20037,14 +19268,11 @@
         <v>-987.23</v>
       </c>
       <c r="C119">
-        <v>42.4</v>
-      </c>
-      <c r="D119">
         <f t="shared" si="1"/>
         <v>0.45002922545418256</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>2012.7</v>
       </c>
@@ -20052,14 +19280,11 @@
         <v>-734.95</v>
       </c>
       <c r="C120">
-        <v>46.48</v>
-      </c>
-      <c r="D120">
         <f t="shared" si="1"/>
         <v>0.56991536498552986</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>2012.89</v>
       </c>
@@ -20067,14 +19292,11 @@
         <v>-807.52</v>
       </c>
       <c r="C121">
-        <v>47.92</v>
-      </c>
-      <c r="D121">
         <f t="shared" si="1"/>
         <v>0.53542932905010154</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>2012.96</v>
       </c>
@@ -20082,14 +19304,11 @@
         <v>-996.11</v>
       </c>
       <c r="C122">
-        <v>45.3</v>
-      </c>
-      <c r="D122">
         <f t="shared" si="1"/>
         <v>0.44580935499660224</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>2013.04</v>
       </c>
@@ -20097,14 +19316,11 @@
         <v>-1220.58</v>
       </c>
       <c r="C123">
-        <v>44.41</v>
-      </c>
-      <c r="D123">
         <f t="shared" si="1"/>
         <v>0.33913882328342043</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>2013.12</v>
       </c>
@@ -20112,14 +19328,11 @@
         <v>-1329.47</v>
       </c>
       <c r="C124">
-        <v>45.72</v>
-      </c>
-      <c r="D124">
         <f t="shared" si="1"/>
         <v>0.28739313700797881</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>2013.3</v>
       </c>
@@ -20127,14 +19340,11 @@
         <v>-1116.96</v>
       </c>
       <c r="C125">
-        <v>47.09</v>
-      </c>
-      <c r="D125">
         <f t="shared" si="1"/>
         <v>0.38838014950126643</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>2013.37</v>
       </c>
@@ -20142,14 +19352,11 @@
         <v>-994.06</v>
       </c>
       <c r="C126">
-        <v>42.13</v>
-      </c>
-      <c r="D126">
         <f t="shared" si="1"/>
         <v>0.44678353680268784</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>2013.46</v>
       </c>
@@ -20157,14 +19364,11 @@
         <v>-989.43</v>
       </c>
       <c r="C127">
-        <v>42.84</v>
-      </c>
-      <c r="D127">
         <f t="shared" si="1"/>
         <v>0.44898376205252982</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>2013.54</v>
       </c>
@@ -20172,14 +19376,11 @@
         <v>-1085.24</v>
       </c>
       <c r="C128">
-        <v>42.57</v>
-      </c>
-      <c r="D128">
         <f t="shared" si="1"/>
         <v>0.40345383091055109</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>2013.79</v>
       </c>
@@ -20187,14 +19388,11 @@
         <v>-1066.72</v>
       </c>
       <c r="C129">
-        <v>44.01</v>
-      </c>
-      <c r="D129">
         <f t="shared" si="1"/>
         <v>0.41225473190991907</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>2013.87</v>
       </c>
@@ -20202,14 +19400,11 @@
         <v>-1215.76</v>
       </c>
       <c r="C130">
-        <v>41.84</v>
-      </c>
-      <c r="D130">
-        <f t="shared" ref="D130:D159" si="2">(B130-MIN(B$1:B$159))/(MAX(B$1:B$159)-MIN(B$1:B$159))</f>
+        <f t="shared" ref="C130:C159" si="2">(B130-MIN(B$1:B$159))/(MAX(B$1:B$159)-MIN(B$1:B$159))</f>
         <v>0.34142933855431423</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>2013.96</v>
       </c>
@@ -20217,14 +19412,11 @@
         <v>-1162.48</v>
       </c>
       <c r="C131">
-        <v>41.18</v>
-      </c>
-      <c r="D131">
         <f t="shared" si="2"/>
         <v>0.36674856129979616</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>2014.02</v>
       </c>
@@ -20232,14 +19424,11 @@
         <v>-1424.32</v>
       </c>
       <c r="C132">
-        <v>47.07</v>
-      </c>
-      <c r="D132">
         <f t="shared" si="2"/>
         <v>0.24231940807763044</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>2014.21</v>
       </c>
@@ -20247,14 +19436,11 @@
         <v>-1606.66</v>
       </c>
       <c r="C133">
-        <v>36.11</v>
-      </c>
-      <c r="D133">
         <f t="shared" si="2"/>
         <v>0.15566950050609929</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>2014.29</v>
       </c>
@@ -20262,14 +19448,11 @@
         <v>-1386.24</v>
       </c>
       <c r="C134">
-        <v>37.01</v>
-      </c>
-      <c r="D134">
         <f t="shared" si="2"/>
         <v>0.26041542913896587</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>2014.37</v>
       </c>
@@ -20277,14 +19460,11 @@
         <v>-1253.6300000000001</v>
       </c>
       <c r="C135">
-        <v>36.81</v>
-      </c>
-      <c r="D135">
         <f t="shared" si="2"/>
         <v>0.32343311172677286</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>2014.45</v>
       </c>
@@ -20292,14 +19472,11 @@
         <v>-1480.57</v>
       </c>
       <c r="C136">
-        <v>39.159999999999997</v>
-      </c>
-      <c r="D136">
         <f t="shared" si="2"/>
         <v>0.21558880973991726</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>2014.62</v>
       </c>
@@ -20307,14 +19484,11 @@
         <v>-1531.72</v>
       </c>
       <c r="C137">
-        <v>37.17</v>
-      </c>
-      <c r="D137">
         <f t="shared" si="2"/>
         <v>0.19128178565149001</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>2014.71</v>
       </c>
@@ -20322,14 +19496,11 @@
         <v>-1252.97</v>
       </c>
       <c r="C138">
-        <v>36.01</v>
-      </c>
-      <c r="D138">
         <f t="shared" si="2"/>
         <v>0.32374675074726872</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>2014.79</v>
       </c>
@@ -20337,14 +19508,11 @@
         <v>-1383.92</v>
       </c>
       <c r="C139">
-        <v>34.590000000000003</v>
-      </c>
-      <c r="D139">
         <f t="shared" si="2"/>
         <v>0.2615179178170724</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>2014.88</v>
       </c>
@@ -20352,14 +19520,11 @@
         <v>-1321.53</v>
       </c>
       <c r="C140">
-        <v>33.71</v>
-      </c>
-      <c r="D140">
         <f t="shared" si="2"/>
         <v>0.2911663094666711</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>2015.06</v>
       </c>
@@ -20367,14 +19532,11 @@
         <v>-1687.98</v>
       </c>
       <c r="C141">
-        <v>37.35</v>
-      </c>
-      <c r="D141">
         <f t="shared" si="2"/>
         <v>0.11702537149591556</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>2015.12</v>
       </c>
@@ -20382,14 +19544,11 @@
         <v>-1697.55</v>
       </c>
       <c r="C142">
-        <v>43.78</v>
-      </c>
-      <c r="D142">
         <f t="shared" si="2"/>
         <v>0.11247760569872599</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>2015.2</v>
       </c>
@@ -20397,14 +19556,11 @@
         <v>-1808.1</v>
       </c>
       <c r="C143">
-        <v>31.71</v>
-      </c>
-      <c r="D143">
         <f t="shared" si="2"/>
         <v>5.9943069765673686E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>2015.29</v>
       </c>
@@ -20412,14 +19568,11 @@
         <v>-1825.73</v>
       </c>
       <c r="C144">
-        <v>33.53</v>
-      </c>
-      <c r="D144">
         <f t="shared" si="2"/>
         <v>5.1565106233337925E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>2015.32</v>
       </c>
@@ -20427,14 +19580,11 @@
         <v>-1735.62</v>
       </c>
       <c r="C145">
-        <v>36.590000000000003</v>
-      </c>
-      <c r="D145">
         <f t="shared" si="2"/>
         <v>9.4386336743761734E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>2015.53</v>
       </c>
@@ -20442,14 +19592,11 @@
         <v>-1862.28</v>
       </c>
       <c r="C146">
-        <v>38.880000000000003</v>
-      </c>
-      <c r="D146">
         <f t="shared" si="2"/>
         <v>3.4196157446788306E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>2015.62</v>
       </c>
@@ -20457,14 +19604,11 @@
         <v>-1934.24</v>
       </c>
       <c r="C147">
-        <v>35.979999999999997</v>
-      </c>
-      <c r="D147">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>2015.7</v>
       </c>
@@ -20472,14 +19616,11 @@
         <v>-1778.25</v>
       </c>
       <c r="C148">
-        <v>40.56</v>
-      </c>
-      <c r="D148">
         <f t="shared" si="2"/>
         <v>7.4128107283553443E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>2015.97</v>
       </c>
@@ -20487,14 +19628,11 @@
         <v>-1637.34</v>
       </c>
       <c r="C149">
-        <v>42.28</v>
-      </c>
-      <c r="D149">
         <f t="shared" si="2"/>
         <v>0.14109003815941421</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>2016.04</v>
       </c>
@@ -20502,14 +19640,11 @@
         <v>-1604.18</v>
       </c>
       <c r="C150">
-        <v>42.32</v>
-      </c>
-      <c r="D150">
         <f t="shared" si="2"/>
         <v>0.15684802288614427</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>2016.12</v>
       </c>
@@ -20517,14 +19652,11 @@
         <v>-1679.21</v>
       </c>
       <c r="C151">
-        <v>42.76</v>
-      </c>
-      <c r="D151">
         <f t="shared" si="2"/>
         <v>0.12119296878341324</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>2016.21</v>
       </c>
@@ -20532,14 +19664,11 @@
         <v>-1516.72</v>
       </c>
       <c r="C152">
-        <v>46.02</v>
-      </c>
-      <c r="D152">
         <f t="shared" si="2"/>
         <v>0.19840994520821353</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>2016.38</v>
       </c>
@@ -20547,14 +19676,11 @@
         <v>-1755.32</v>
       </c>
       <c r="C153">
-        <v>51.79</v>
-      </c>
-      <c r="D153">
         <f t="shared" si="2"/>
         <v>8.5024687192598161E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>2016.46</v>
       </c>
@@ -20562,14 +19688,11 @@
         <v>-1611.07</v>
       </c>
       <c r="C154">
-        <v>50.97</v>
-      </c>
-      <c r="D154">
         <f t="shared" si="2"/>
         <v>0.15357382159642266</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>2016.54</v>
       </c>
@@ -20577,14 +19700,11 @@
         <v>-1750.97</v>
       </c>
       <c r="C155">
-        <v>52.91</v>
-      </c>
-      <c r="D155">
         <f t="shared" si="2"/>
         <v>8.7091853464047936E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>2016.64</v>
       </c>
@@ -20592,14 +19712,11 @@
         <v>-1808.04</v>
       </c>
       <c r="C156">
-        <v>63.75</v>
-      </c>
-      <c r="D156">
         <f t="shared" si="2"/>
         <v>5.9971582403900554E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>2016.91</v>
       </c>
@@ -20607,14 +19724,11 @@
         <v>-1438.7</v>
       </c>
       <c r="C157">
-        <v>96.48</v>
-      </c>
-      <c r="D157">
         <f t="shared" si="2"/>
         <v>0.23548587911591812</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>2016.98</v>
       </c>
@@ -20622,14 +19736,11 @@
         <v>-1840.86</v>
       </c>
       <c r="C158">
-        <v>102.66</v>
-      </c>
-      <c r="D158">
         <f t="shared" si="2"/>
         <v>4.4375169293789526E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>2017.06</v>
       </c>
@@ -20637,9 +19748,6 @@
         <v>-1933.91</v>
       </c>
       <c r="C159">
-        <v>119.77</v>
-      </c>
-      <c r="D159">
         <f t="shared" si="2"/>
         <v>1.5681951024788281E-4</v>
       </c>
